--- a/Result_data/DE_SVM_10_6.xlsx
+++ b/Result_data/DE_SVM_10_6.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Result" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Time" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Result1" sheetId="1" r:id="rId1"/>
+    <sheet name="Result2" sheetId="4" r:id="rId2"/>
+    <sheet name="Calculation" sheetId="6" r:id="rId3"/>
+    <sheet name="Class Avg" sheetId="7" r:id="rId4"/>
+    <sheet name="Time" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Result!$A$1:$F$240</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$A$1:$H$243</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Result1!$A$1:$F$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Result2!$A$1:$H$243</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="25">
   <si>
     <t>precision</t>
   </si>
@@ -78,6 +78,30 @@
   </si>
   <si>
     <t>training</t>
+  </si>
+  <si>
+    <t>Precision Avg</t>
+  </si>
+  <si>
+    <t>Recall Avg</t>
+  </si>
+  <si>
+    <t>F-Score Avg</t>
+  </si>
+  <si>
+    <t>Class 1</t>
+  </si>
+  <si>
+    <t>Class 2</t>
+  </si>
+  <si>
+    <t>Class 3</t>
+  </si>
+  <si>
+    <t>Class 4</t>
+  </si>
+  <si>
+    <t>DE SVM</t>
   </si>
 </sst>
 </file>
@@ -399,7 +423,7 @@
   <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E238"/>
+      <selection activeCell="C8" sqref="C8:E240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,7 +501,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -499,7 +523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -592,7 +616,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>4</v>
       </c>
@@ -614,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -707,7 +731,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>4</v>
       </c>
@@ -729,7 +753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -822,7 +846,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>4</v>
       </c>
@@ -844,7 +868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -937,7 +961,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>4</v>
       </c>
@@ -959,7 +983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1052,7 +1076,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1074,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1191,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>4</v>
       </c>
@@ -1189,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1282,7 +1306,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>4</v>
       </c>
@@ -1304,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1397,7 +1421,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>4</v>
       </c>
@@ -1419,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1512,7 +1536,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>4</v>
       </c>
@@ -1534,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1627,7 +1651,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>4</v>
       </c>
@@ -1649,7 +1673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>4</v>
       </c>
@@ -1764,7 +1788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +1881,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>4</v>
       </c>
@@ -1879,7 +1903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +1996,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>4</v>
       </c>
@@ -1994,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -2087,7 +2111,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>4</v>
       </c>
@@ -2109,7 +2133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -2202,7 +2226,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>4</v>
       </c>
@@ -2224,7 +2248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -2317,7 +2341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>4</v>
       </c>
@@ -2339,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2456,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>4</v>
       </c>
@@ -2454,7 +2478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -2547,7 +2571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>4</v>
       </c>
@@ -2569,7 +2593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B158">
         <v>4</v>
       </c>
@@ -2684,7 +2708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -2777,7 +2801,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B166">
         <v>4</v>
       </c>
@@ -2799,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -2892,7 +2916,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174">
         <v>4</v>
       </c>
@@ -2914,7 +2938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -3007,7 +3031,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B182">
         <v>4</v>
       </c>
@@ -3029,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -3122,7 +3146,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B190">
         <v>4</v>
       </c>
@@ -3144,7 +3168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -3237,7 +3261,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B198">
         <v>4</v>
       </c>
@@ -3259,7 +3283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -3352,7 +3376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B206">
         <v>4</v>
       </c>
@@ -3374,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -3467,7 +3491,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B214">
         <v>4</v>
       </c>
@@ -3489,7 +3513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -3582,7 +3606,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B222">
         <v>4</v>
       </c>
@@ -3604,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -3697,7 +3721,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B230">
         <v>4</v>
       </c>
@@ -3719,7 +3743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -3812,7 +3836,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B238">
         <v>4</v>
       </c>
@@ -3834,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -3858,7 +3882,7 @@
   <autoFilter ref="A1:F240" xr:uid="{FFF8A56B-5B7E-4639-BE55-A9708D3B0F71}">
     <filterColumn colId="1">
       <filters>
-        <filter val="4"/>
+        <filter val="/ total"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3867,325 +3891,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8099B10-15EC-4A6C-B0BB-DB33E9BD484C}">
-  <dimension ref="A1:AF30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:AF1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="C1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="D1">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="E1">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="F1">
-        <v>0.93500000000000005</v>
-      </c>
-      <c r="G1">
-        <v>0.93</v>
-      </c>
-      <c r="H1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="I1">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="J1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="K1">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="L1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="M1">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="N1">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="O1">
-        <v>0.92700000000000005</v>
-      </c>
-      <c r="P1">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="Q1">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="R1">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="S1">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="T1">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="U1">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="V1">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="W1">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="X1">
-        <v>0.92</v>
-      </c>
-      <c r="Y1">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="Z1">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="AA1">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="AB1">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="AC1">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="AD1">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="AE1">
-        <v>0.93</v>
-      </c>
-      <c r="AF1">
-        <v>0.94299999999999995</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.93300000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.93500000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.93400000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.91200000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.92800000000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.92700000000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.93100000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.94099999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.93400000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.93300000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.93600000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.93899999999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.90500000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.94299999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0.93400000000000005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.93799999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.94299999999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD57A980-855F-4620-BC0C-775DF77023E3}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1">
-        <v>21907.180684522398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>22152.939994333799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3">
-        <f>SUM(D1:D2)</f>
-        <v>44060.120678856198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <f>D3/60</f>
-        <v>734.33534464760328</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9521FA-27D7-45B2-B56C-676467B23CBF}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E9" sqref="E9:G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7886,17 +7597,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C97B31-D377-4C52-A7CB-E31E9ADC8AD8}">
-  <dimension ref="A1:AJ30"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABD84A7-1C89-4823-974D-3BC2866F14C4}">
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:AJ9"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.95099999999999996</v>
       </c>
@@ -7907,7 +7618,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.93899999999999995</v>
       </c>
@@ -7918,7 +7629,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.94699999999999995</v>
       </c>
@@ -7929,7 +7640,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.94799999999999995</v>
       </c>
@@ -7940,7 +7651,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.93799999999999994</v>
       </c>
@@ -7951,7 +7662,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.93799999999999994</v>
       </c>
@@ -7962,7 +7673,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.94299999999999995</v>
       </c>
@@ -7972,98 +7683,8 @@
       <c r="C7">
         <v>0.94299999999999995</v>
       </c>
-      <c r="G7">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="H7">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="I7">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="J7">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K7">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="L7">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="M7">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N7">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="O7">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="P7">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="Q7">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="R7">
-        <v>0.94</v>
-      </c>
-      <c r="S7">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="T7">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="U7">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="V7">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="W7">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="X7">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="Y7">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="Z7">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="AA7">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AB7">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="AC7">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="AD7">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="AE7">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="AF7">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="AG7">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="AH7">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="AI7">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="AJ7">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.93799999999999994</v>
       </c>
@@ -8073,98 +7694,8 @@
       <c r="C8">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G8">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="H8">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="I8">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="J8">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K8">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="L8">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="M8">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N8">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="O8">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="P8">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="Q8">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="R8">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="S8">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="T8">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="U8">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="V8">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="W8">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="X8">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="Y8">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="Z8">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="AA8">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AB8">
-        <v>0.91400000000000003</v>
-      </c>
-      <c r="AC8">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="AD8">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="AE8">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="AF8">
-        <v>0.93400000000000005</v>
-      </c>
-      <c r="AG8">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="AH8">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="AI8">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="AJ8">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.90400000000000003</v>
       </c>
@@ -8174,98 +7705,8 @@
       <c r="C9">
         <v>0.90400000000000003</v>
       </c>
-      <c r="G9">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="H9">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="I9">
-        <v>0.94699999999999995</v>
-      </c>
-      <c r="J9">
-        <v>0.94799999999999995</v>
-      </c>
-      <c r="K9">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="L9">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="M9">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="N9">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="O9">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="P9">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="Q9">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="R9">
-        <v>0.93899999999999995</v>
-      </c>
-      <c r="S9">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="T9">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="U9">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="V9">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="W9">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="X9">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="Y9">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="Z9">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="AA9">
-        <v>0.94599999999999995</v>
-      </c>
-      <c r="AB9">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="AC9">
-        <v>0.94399999999999995</v>
-      </c>
-      <c r="AD9">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="AE9">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="AF9">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="AG9">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="AH9">
-        <v>0.94499999999999995</v>
-      </c>
-      <c r="AI9">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="AJ9">
-        <v>0.94599999999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.92500000000000004</v>
       </c>
@@ -8276,7 +7717,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.94099999999999995</v>
       </c>
@@ -8287,7 +7728,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.94</v>
       </c>
@@ -8298,7 +7739,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.93700000000000006</v>
       </c>
@@ -8309,7 +7750,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.94199999999999995</v>
       </c>
@@ -8320,7 +7761,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.94399999999999995</v>
       </c>
@@ -8331,7 +7772,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.94399999999999995</v>
       </c>
@@ -8494,6 +7935,502 @@
       </c>
       <c r="C30">
         <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="B31">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C31">
+        <v>0.95099999999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="B32">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="B33">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C33">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="B34">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="C34">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="B35">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C35">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="B36">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C36">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="B37">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C37">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="B38">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C38">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="B39">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="C39">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="B40">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C40">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="B41">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="C41">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.94</v>
+      </c>
+      <c r="B42">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="C42">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="B43">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="C43">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="B44">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="C44">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="B45">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C45">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="B46">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C46">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="B47">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C47">
+        <v>0.94299999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="B48">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C48">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="B49">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C49">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="B50">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="C50">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="B51">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C51">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="B52">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C52">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="B53">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="C53">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="B54">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="C54">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="B55">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="C55">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="B56">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C56">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B57">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="C57">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="B58">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="C58">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="B59">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C59">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="B60">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C60">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>AVERAGE(A1:A60)</f>
+        <v>0.93563333333333321</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:C61" si="0">AVERAGE(B1:B60)</f>
+        <v>0.93573333333333353</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.93549999999999989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F322C255-EDEB-41AB-A3A0-F3469CB26674}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.91046666666666654</v>
+      </c>
+      <c r="C2">
+        <v>0.92430000000000034</v>
+      </c>
+      <c r="D2">
+        <v>0.91709999999999969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>0.91846666666666654</v>
+      </c>
+      <c r="C3">
+        <v>0.90113333333333323</v>
+      </c>
+      <c r="D3">
+        <v>0.90969999999999973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0.97136666666666671</v>
+      </c>
+      <c r="C4">
+        <v>0.99210000000000009</v>
+      </c>
+      <c r="D4">
+        <v>0.98136666666666639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>0.94260000000000022</v>
+      </c>
+      <c r="C5">
+        <v>0.92513333333333359</v>
+      </c>
+      <c r="D5">
+        <v>0.93366666666666664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD57A980-855F-4620-BC0C-775DF77023E3}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1">
+        <v>21907.180684522398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>22152.939994333799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>SUM(D1:D2)</f>
+        <v>44060.120678856198</v>
+      </c>
+      <c r="E3">
+        <f>D3/3600</f>
+        <v>12.238922410793387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>D3/60</f>
+        <v>734.33534464760328</v>
       </c>
     </row>
   </sheetData>

--- a/Result_data/DE_SVM_10_6.xlsx
+++ b/Result_data/DE_SVM_10_6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="28">
   <si>
     <t>precision</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>DE SVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local learning + hyper parameter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">screen dump of stack over flow on 1st few page </t>
+  </si>
+  <si>
+    <t>Defect Prediction and Class Imbalance</t>
   </si>
 </sst>
 </file>
@@ -7601,8 +7610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABD84A7-1C89-4823-974D-3BC2866F14C4}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:C61"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8378,18 +8387,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD57A980-855F-4620-BC0C-775DF77023E3}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8403,7 +8413,7 @@
         <v>21907.180684522398</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8417,7 +8427,7 @@
         <v>22152.939994333799</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D3">
         <f>SUM(D1:D2)</f>
         <v>44060.120678856198</v>
@@ -8427,10 +8437,32 @@
         <v>12.238922410793387</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5">
         <f>D3/60</f>
         <v>734.33534464760328</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <f>D5*E5</f>
+        <v>73433.534464760334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Result_data/DE_SVM_10_6.xlsx
+++ b/Result_data/DE_SVM_10_6.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="31">
   <si>
     <t>precision</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Class 4</t>
   </si>
   <si>
-    <t>DE SVM</t>
-  </si>
-  <si>
     <t xml:space="preserve">local learning + hyper parameter </t>
   </si>
   <si>
@@ -112,11 +109,26 @@
   <si>
     <t>Defect Prediction and Class Imbalance</t>
   </si>
+  <si>
+    <t>OverAll</t>
+  </si>
+  <si>
+    <t>Our DE_SVM</t>
+  </si>
+  <si>
+    <t>Fu's DE_SVM</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -142,12 +154,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,12 +606,12 @@
       <selection activeCell="C8" sqref="C8:E240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -454,12 +625,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>1</v>
       </c>
@@ -476,7 +647,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -493,7 +664,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3</v>
       </c>
@@ -510,7 +681,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>4</v>
       </c>
@@ -527,12 +698,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -552,7 +723,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5</v>
       </c>
@@ -569,12 +740,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1</v>
       </c>
@@ -591,7 +762,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>2</v>
       </c>
@@ -608,7 +779,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -625,7 +796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>4</v>
       </c>
@@ -642,12 +813,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -667,7 +838,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>5</v>
       </c>
@@ -684,12 +855,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>1</v>
       </c>
@@ -706,7 +877,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>2</v>
       </c>
@@ -723,7 +894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -740,7 +911,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>4</v>
       </c>
@@ -757,12 +928,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -782,7 +953,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>5</v>
       </c>
@@ -799,12 +970,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
@@ -821,7 +992,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>2</v>
       </c>
@@ -838,7 +1009,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>3</v>
       </c>
@@ -855,7 +1026,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>4</v>
       </c>
@@ -872,12 +1043,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -897,7 +1068,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5</v>
       </c>
@@ -914,12 +1085,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1</v>
       </c>
@@ -936,7 +1107,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>2</v>
       </c>
@@ -953,7 +1124,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>3</v>
       </c>
@@ -970,7 +1141,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>4</v>
       </c>
@@ -987,12 +1158,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1183,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>5</v>
       </c>
@@ -1029,12 +1200,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -1051,7 +1222,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>2</v>
       </c>
@@ -1068,7 +1239,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>3</v>
       </c>
@@ -1085,7 +1256,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>4</v>
       </c>
@@ -1102,12 +1273,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -1127,7 +1298,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>5</v>
       </c>
@@ -1144,12 +1315,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>1</v>
       </c>
@@ -1166,7 +1337,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>2</v>
       </c>
@@ -1183,7 +1354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>3</v>
       </c>
@@ -1200,7 +1371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>4</v>
       </c>
@@ -1217,12 +1388,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1413,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>5</v>
       </c>
@@ -1259,12 +1430,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>1</v>
       </c>
@@ -1281,7 +1452,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>2</v>
       </c>
@@ -1298,7 +1469,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>3</v>
       </c>
@@ -1315,7 +1486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>4</v>
       </c>
@@ -1332,12 +1503,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1528,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>5</v>
       </c>
@@ -1374,12 +1545,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>1</v>
       </c>
@@ -1396,7 +1567,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>2</v>
       </c>
@@ -1413,7 +1584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>3</v>
       </c>
@@ -1430,7 +1601,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>4</v>
       </c>
@@ -1447,12 +1618,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -1472,7 +1643,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>5</v>
       </c>
@@ -1489,12 +1660,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>1</v>
       </c>
@@ -1511,7 +1682,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>2</v>
       </c>
@@ -1528,7 +1699,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>3</v>
       </c>
@@ -1545,7 +1716,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>4</v>
       </c>
@@ -1562,12 +1733,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1587,7 +1758,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>5</v>
       </c>
@@ -1604,12 +1775,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>1</v>
       </c>
@@ -1626,7 +1797,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>2</v>
       </c>
@@ -1643,7 +1814,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>3</v>
       </c>
@@ -1660,7 +1831,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>4</v>
       </c>
@@ -1677,12 +1848,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1873,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>5</v>
       </c>
@@ -1719,12 +1890,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>1</v>
       </c>
@@ -1741,7 +1912,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>2</v>
       </c>
@@ -1758,7 +1929,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>3</v>
       </c>
@@ -1775,7 +1946,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>4</v>
       </c>
@@ -1792,12 +1963,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1988,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>5</v>
       </c>
@@ -1834,12 +2005,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>1</v>
       </c>
@@ -1856,7 +2027,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>2</v>
       </c>
@@ -1873,7 +2044,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>3</v>
       </c>
@@ -1890,7 +2061,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>4</v>
       </c>
@@ -1907,12 +2078,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -1932,7 +2103,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>5</v>
       </c>
@@ -1949,12 +2120,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>1</v>
       </c>
@@ -1971,7 +2142,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>2</v>
       </c>
@@ -1988,7 +2159,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>3</v>
       </c>
@@ -2005,7 +2176,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>4</v>
       </c>
@@ -2022,12 +2193,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>4</v>
       </c>
@@ -2047,7 +2218,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>5</v>
       </c>
@@ -2064,12 +2235,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>1</v>
       </c>
@@ -2086,7 +2257,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>2</v>
       </c>
@@ -2103,7 +2274,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>3</v>
       </c>
@@ -2120,7 +2291,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>4</v>
       </c>
@@ -2137,12 +2308,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2333,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>5</v>
       </c>
@@ -2179,12 +2350,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>1</v>
       </c>
@@ -2201,7 +2372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>2</v>
       </c>
@@ -2218,7 +2389,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>3</v>
       </c>
@@ -2235,7 +2406,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>4</v>
       </c>
@@ -2252,12 +2423,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2448,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>5</v>
       </c>
@@ -2294,12 +2465,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>1</v>
       </c>
@@ -2316,7 +2487,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>2</v>
       </c>
@@ -2333,7 +2504,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>3</v>
       </c>
@@ -2350,7 +2521,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>4</v>
       </c>
@@ -2367,12 +2538,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -2392,7 +2563,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>5</v>
       </c>
@@ -2409,12 +2580,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>1</v>
       </c>
@@ -2431,7 +2602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>2</v>
       </c>
@@ -2448,7 +2619,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>3</v>
       </c>
@@ -2465,7 +2636,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>4</v>
       </c>
@@ -2482,12 +2653,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -2507,7 +2678,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>5</v>
       </c>
@@ -2524,12 +2695,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>1</v>
       </c>
@@ -2546,7 +2717,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>2</v>
       </c>
@@ -2563,7 +2734,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>3</v>
       </c>
@@ -2580,7 +2751,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>4</v>
       </c>
@@ -2597,12 +2768,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +2793,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B153">
         <v>5</v>
       </c>
@@ -2639,12 +2810,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>1</v>
       </c>
@@ -2661,7 +2832,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>2</v>
       </c>
@@ -2678,7 +2849,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>3</v>
       </c>
@@ -2695,7 +2866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>4</v>
       </c>
@@ -2712,12 +2883,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -2737,7 +2908,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>5</v>
       </c>
@@ -2754,12 +2925,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>1</v>
       </c>
@@ -2776,7 +2947,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>2</v>
       </c>
@@ -2793,7 +2964,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>3</v>
       </c>
@@ -2810,7 +2981,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>4</v>
       </c>
@@ -2827,12 +2998,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -2852,7 +3023,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>5</v>
       </c>
@@ -2869,12 +3040,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>1</v>
       </c>
@@ -2891,7 +3062,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>2</v>
       </c>
@@ -2908,7 +3079,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>3</v>
       </c>
@@ -2925,7 +3096,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>4</v>
       </c>
@@ -2942,12 +3113,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -2967,7 +3138,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>5</v>
       </c>
@@ -2984,12 +3155,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>1</v>
       </c>
@@ -3006,7 +3177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>2</v>
       </c>
@@ -3023,7 +3194,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B181">
         <v>3</v>
       </c>
@@ -3040,7 +3211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B182">
         <v>4</v>
       </c>
@@ -3057,12 +3228,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -3082,7 +3253,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>5</v>
       </c>
@@ -3099,12 +3270,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>1</v>
       </c>
@@ -3121,7 +3292,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>2</v>
       </c>
@@ -3138,7 +3309,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>3</v>
       </c>
@@ -3155,7 +3326,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>4</v>
       </c>
@@ -3172,12 +3343,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -3197,7 +3368,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>5</v>
       </c>
@@ -3214,12 +3385,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>1</v>
       </c>
@@ -3236,7 +3407,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>2</v>
       </c>
@@ -3253,7 +3424,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>3</v>
       </c>
@@ -3270,7 +3441,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>4</v>
       </c>
@@ -3287,12 +3458,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>4</v>
       </c>
@@ -3312,7 +3483,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>5</v>
       </c>
@@ -3329,12 +3500,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>1</v>
       </c>
@@ -3351,7 +3522,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>2</v>
       </c>
@@ -3368,7 +3539,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>3</v>
       </c>
@@ -3385,7 +3556,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>4</v>
       </c>
@@ -3402,12 +3573,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>4</v>
       </c>
@@ -3427,7 +3598,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>5</v>
       </c>
@@ -3444,12 +3615,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>1</v>
       </c>
@@ -3466,7 +3637,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>2</v>
       </c>
@@ -3483,7 +3654,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B213">
         <v>3</v>
       </c>
@@ -3500,7 +3671,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B214">
         <v>4</v>
       </c>
@@ -3517,12 +3688,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>4</v>
       </c>
@@ -3542,7 +3713,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>5</v>
       </c>
@@ -3559,12 +3730,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>1</v>
       </c>
@@ -3581,7 +3752,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>2</v>
       </c>
@@ -3598,7 +3769,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>3</v>
       </c>
@@ -3615,7 +3786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>4</v>
       </c>
@@ -3632,12 +3803,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>4</v>
       </c>
@@ -3657,7 +3828,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>5</v>
       </c>
@@ -3674,12 +3845,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B227">
         <v>1</v>
       </c>
@@ -3696,7 +3867,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>2</v>
       </c>
@@ -3713,7 +3884,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>3</v>
       </c>
@@ -3730,7 +3901,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>4</v>
       </c>
@@ -3747,12 +3918,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>4</v>
       </c>
@@ -3772,7 +3943,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>5</v>
       </c>
@@ -3789,12 +3960,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>1</v>
       </c>
@@ -3811,7 +3982,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>2</v>
       </c>
@@ -3828,7 +3999,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>3</v>
       </c>
@@ -3845,7 +4016,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>4</v>
       </c>
@@ -3862,12 +4033,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -3908,12 +4079,12 @@
       <selection activeCell="E9" sqref="E9:G241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3936,7 +4107,7 @@
         <v>94333872</v>
       </c>
     </row>
-    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>9</v>
       </c>
@@ -3956,12 +4127,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -3978,7 +4149,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -3995,7 +4166,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>3</v>
       </c>
@@ -4012,7 +4183,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>4</v>
       </c>
@@ -4029,12 +4200,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -4057,7 +4228,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>9</v>
       </c>
@@ -4077,12 +4248,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C12">
         <v>1</v>
       </c>
@@ -4099,7 +4270,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>2</v>
       </c>
@@ -4116,7 +4287,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>3</v>
       </c>
@@ -4133,7 +4304,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>4</v>
       </c>
@@ -4150,12 +4321,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4178,7 +4349,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>9</v>
       </c>
@@ -4198,12 +4369,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>1</v>
       </c>
@@ -4220,7 +4391,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>2</v>
       </c>
@@ -4237,7 +4408,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>3</v>
       </c>
@@ -4254,7 +4425,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>4</v>
       </c>
@@ -4271,12 +4442,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C24">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4299,7 +4470,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C26">
         <v>9</v>
       </c>
@@ -4319,12 +4490,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C27">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C28">
         <v>1</v>
       </c>
@@ -4341,7 +4512,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C29">
         <v>2</v>
       </c>
@@ -4358,7 +4529,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C30">
         <v>3</v>
       </c>
@@ -4375,7 +4546,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C31">
         <v>4</v>
       </c>
@@ -4392,12 +4563,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C32">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4420,7 +4591,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C34">
         <v>9</v>
       </c>
@@ -4440,12 +4611,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C35">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C36">
         <v>1</v>
       </c>
@@ -4462,7 +4633,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C37">
         <v>2</v>
       </c>
@@ -4479,7 +4650,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C38">
         <v>3</v>
       </c>
@@ -4496,7 +4667,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C39">
         <v>4</v>
       </c>
@@ -4513,12 +4684,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C40">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -4541,7 +4712,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C42">
         <v>9</v>
       </c>
@@ -4561,12 +4732,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C43">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C44">
         <v>1</v>
       </c>
@@ -4583,7 +4754,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C45">
         <v>2</v>
       </c>
@@ -4600,7 +4771,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46">
         <v>3</v>
       </c>
@@ -4617,7 +4788,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C47">
         <v>4</v>
       </c>
@@ -4634,12 +4805,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -4662,7 +4833,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C50">
         <v>9</v>
       </c>
@@ -4682,12 +4853,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C52">
         <v>1</v>
       </c>
@@ -4704,7 +4875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C53">
         <v>2</v>
       </c>
@@ -4721,7 +4892,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C54">
         <v>3</v>
       </c>
@@ -4738,7 +4909,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <v>4</v>
       </c>
@@ -4755,12 +4926,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C56">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -4783,7 +4954,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C58">
         <v>9</v>
       </c>
@@ -4803,12 +4974,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C59">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C60">
         <v>1</v>
       </c>
@@ -4825,7 +4996,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C61">
         <v>2</v>
       </c>
@@ -4842,7 +5013,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C62">
         <v>3</v>
       </c>
@@ -4859,7 +5030,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C63">
         <v>4</v>
       </c>
@@ -4876,12 +5047,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C64">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -4904,7 +5075,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C66">
         <v>9</v>
       </c>
@@ -4924,12 +5095,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C67">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C68">
         <v>1</v>
       </c>
@@ -4946,7 +5117,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C69">
         <v>2</v>
       </c>
@@ -4963,7 +5134,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C70">
         <v>3</v>
       </c>
@@ -4980,7 +5151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C71">
         <v>4</v>
       </c>
@@ -4997,12 +5168,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C72">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -5025,7 +5196,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C74">
         <v>9</v>
       </c>
@@ -5045,12 +5216,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C75">
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C76">
         <v>1</v>
       </c>
@@ -5067,7 +5238,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C77">
         <v>2</v>
       </c>
@@ -5084,7 +5255,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C78">
         <v>3</v>
       </c>
@@ -5101,7 +5272,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C79">
         <v>4</v>
       </c>
@@ -5118,12 +5289,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5146,7 +5317,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>9</v>
       </c>
@@ -5166,12 +5337,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>1</v>
       </c>
@@ -5188,7 +5359,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C85">
         <v>2</v>
       </c>
@@ -5205,7 +5376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C86">
         <v>3</v>
       </c>
@@ -5222,7 +5393,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C87">
         <v>4</v>
       </c>
@@ -5239,12 +5410,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C88">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5267,7 +5438,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C90">
         <v>9</v>
       </c>
@@ -5287,12 +5458,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C91">
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C92">
         <v>1</v>
       </c>
@@ -5309,7 +5480,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>2</v>
       </c>
@@ -5326,7 +5497,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>3</v>
       </c>
@@ -5343,7 +5514,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>4</v>
       </c>
@@ -5360,12 +5531,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +5559,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>9</v>
       </c>
@@ -5408,12 +5579,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>1</v>
       </c>
@@ -5430,7 +5601,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>2</v>
       </c>
@@ -5447,7 +5618,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>3</v>
       </c>
@@ -5464,7 +5635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C103">
         <v>4</v>
       </c>
@@ -5481,12 +5652,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C104">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -5509,7 +5680,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C106">
         <v>9</v>
       </c>
@@ -5529,12 +5700,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C107">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C108">
         <v>1</v>
       </c>
@@ -5551,7 +5722,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C109">
         <v>2</v>
       </c>
@@ -5568,7 +5739,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C110">
         <v>3</v>
       </c>
@@ -5585,7 +5756,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C111">
         <v>4</v>
       </c>
@@ -5602,12 +5773,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C112">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -5630,7 +5801,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>9</v>
       </c>
@@ -5650,12 +5821,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>1</v>
       </c>
@@ -5672,7 +5843,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>2</v>
       </c>
@@ -5689,7 +5860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>3</v>
       </c>
@@ -5706,7 +5877,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>4</v>
       </c>
@@ -5723,12 +5894,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>4</v>
       </c>
@@ -5751,7 +5922,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C122">
         <v>9</v>
       </c>
@@ -5771,12 +5942,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C123">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C124">
         <v>1</v>
       </c>
@@ -5793,7 +5964,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C125">
         <v>2</v>
       </c>
@@ -5810,7 +5981,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>3</v>
       </c>
@@ -5827,7 +5998,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>4</v>
       </c>
@@ -5844,12 +6015,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C128">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -5872,7 +6043,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>9</v>
       </c>
@@ -5892,12 +6063,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>1</v>
       </c>
@@ -5914,7 +6085,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C133">
         <v>2</v>
       </c>
@@ -5931,7 +6102,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C134">
         <v>3</v>
       </c>
@@ -5948,7 +6119,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>4</v>
       </c>
@@ -5965,12 +6136,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C136">
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>4</v>
       </c>
@@ -5993,7 +6164,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C138">
         <v>9</v>
       </c>
@@ -6013,12 +6184,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C139">
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C140">
         <v>1</v>
       </c>
@@ -6035,7 +6206,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C141">
         <v>2</v>
       </c>
@@ -6052,7 +6223,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C142">
         <v>3</v>
       </c>
@@ -6069,7 +6240,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C143">
         <v>4</v>
       </c>
@@ -6086,12 +6257,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C144">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>4</v>
       </c>
@@ -6114,7 +6285,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C146">
         <v>9</v>
       </c>
@@ -6134,12 +6305,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C148">
         <v>1</v>
       </c>
@@ -6156,7 +6327,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C149">
         <v>2</v>
       </c>
@@ -6173,7 +6344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C150">
         <v>3</v>
       </c>
@@ -6190,7 +6361,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C151">
         <v>4</v>
       </c>
@@ -6207,12 +6378,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C152">
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -6235,7 +6406,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C154">
         <v>9</v>
       </c>
@@ -6255,12 +6426,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C155">
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C156">
         <v>1</v>
       </c>
@@ -6277,7 +6448,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C157">
         <v>2</v>
       </c>
@@ -6294,7 +6465,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C158">
         <v>3</v>
       </c>
@@ -6311,7 +6482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C159">
         <v>4</v>
       </c>
@@ -6328,12 +6499,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C160">
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -6356,7 +6527,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C162">
         <v>9</v>
       </c>
@@ -6376,12 +6547,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C163">
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C164">
         <v>1</v>
       </c>
@@ -6398,7 +6569,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C165">
         <v>2</v>
       </c>
@@ -6415,7 +6586,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C166">
         <v>3</v>
       </c>
@@ -6432,7 +6603,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C167">
         <v>4</v>
       </c>
@@ -6449,12 +6620,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C168">
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -6477,7 +6648,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C170">
         <v>9</v>
       </c>
@@ -6497,12 +6668,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C171">
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C172">
         <v>1</v>
       </c>
@@ -6519,7 +6690,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C173">
         <v>2</v>
       </c>
@@ -6536,7 +6707,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C174">
         <v>3</v>
       </c>
@@ -6553,7 +6724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C175">
         <v>4</v>
       </c>
@@ -6570,12 +6741,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C176">
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -6598,7 +6769,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C178">
         <v>9</v>
       </c>
@@ -6618,12 +6789,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C179">
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C180">
         <v>1</v>
       </c>
@@ -6640,7 +6811,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C181">
         <v>2</v>
       </c>
@@ -6657,7 +6828,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C182">
         <v>3</v>
       </c>
@@ -6674,7 +6845,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C183">
         <v>4</v>
       </c>
@@ -6691,12 +6862,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C184">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -6719,7 +6890,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C186">
         <v>9</v>
       </c>
@@ -6739,12 +6910,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C187">
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C188">
         <v>1</v>
       </c>
@@ -6761,7 +6932,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C189">
         <v>2</v>
       </c>
@@ -6778,7 +6949,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C190">
         <v>3</v>
       </c>
@@ -6795,7 +6966,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C191">
         <v>4</v>
       </c>
@@ -6812,12 +6983,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C192">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -6840,7 +7011,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C194">
         <v>9</v>
       </c>
@@ -6860,12 +7031,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C195">
         <v>9</v>
       </c>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C196">
         <v>1</v>
       </c>
@@ -6882,7 +7053,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C197">
         <v>2</v>
       </c>
@@ -6899,7 +7070,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C198">
         <v>3</v>
       </c>
@@ -6916,7 +7087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C199">
         <v>4</v>
       </c>
@@ -6933,12 +7104,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C200">
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -6961,7 +7132,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C202">
         <v>9</v>
       </c>
@@ -6981,12 +7152,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C203">
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C204">
         <v>1</v>
       </c>
@@ -7003,7 +7174,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C205">
         <v>2</v>
       </c>
@@ -7020,7 +7191,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C206">
         <v>3</v>
       </c>
@@ -7037,7 +7208,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C207">
         <v>4</v>
       </c>
@@ -7054,12 +7225,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C208">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>4</v>
       </c>
@@ -7082,7 +7253,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C210">
         <v>9</v>
       </c>
@@ -7102,12 +7273,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C211">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C212">
         <v>1</v>
       </c>
@@ -7124,7 +7295,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C213">
         <v>2</v>
       </c>
@@ -7141,7 +7312,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C214">
         <v>3</v>
       </c>
@@ -7158,7 +7329,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C215">
         <v>4</v>
       </c>
@@ -7175,12 +7346,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C216">
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>4</v>
       </c>
@@ -7203,7 +7374,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C218">
         <v>9</v>
       </c>
@@ -7223,12 +7394,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C219">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C220">
         <v>1</v>
       </c>
@@ -7245,7 +7416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C221">
         <v>2</v>
       </c>
@@ -7262,7 +7433,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C222">
         <v>3</v>
       </c>
@@ -7279,7 +7450,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C223">
         <v>4</v>
       </c>
@@ -7296,12 +7467,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C224">
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>4</v>
       </c>
@@ -7324,7 +7495,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C226">
         <v>9</v>
       </c>
@@ -7344,12 +7515,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C227">
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C228">
         <v>1</v>
       </c>
@@ -7366,7 +7537,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C229">
         <v>2</v>
       </c>
@@ -7383,7 +7554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C230">
         <v>3</v>
       </c>
@@ -7400,7 +7571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C231">
         <v>4</v>
       </c>
@@ -7417,12 +7588,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C232">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>4</v>
       </c>
@@ -7445,7 +7616,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C234">
         <v>9</v>
       </c>
@@ -7465,12 +7636,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C235">
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C236">
         <v>1</v>
       </c>
@@ -7487,7 +7658,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C237">
         <v>2</v>
       </c>
@@ -7504,7 +7675,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C238">
         <v>3</v>
       </c>
@@ -7521,7 +7692,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C239">
         <v>4</v>
       </c>
@@ -7538,12 +7709,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C240">
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>4</v>
       </c>
@@ -7566,12 +7737,12 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C242">
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -7614,9 +7785,9 @@
       <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>0.95099999999999996</v>
       </c>
@@ -7627,7 +7798,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0.93899999999999995</v>
       </c>
@@ -7638,7 +7809,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.94699999999999995</v>
       </c>
@@ -7649,7 +7820,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.94799999999999995</v>
       </c>
@@ -7660,7 +7831,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.93799999999999994</v>
       </c>
@@ -7671,7 +7842,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.93799999999999994</v>
       </c>
@@ -7682,7 +7853,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.94299999999999995</v>
       </c>
@@ -7693,7 +7864,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.93799999999999994</v>
       </c>
@@ -7704,7 +7875,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.90400000000000003</v>
       </c>
@@ -7715,7 +7886,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.92500000000000004</v>
       </c>
@@ -7726,7 +7897,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.94099999999999995</v>
       </c>
@@ -7737,7 +7908,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.94</v>
       </c>
@@ -7748,7 +7919,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0.93700000000000006</v>
       </c>
@@ -7759,7 +7930,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0.94199999999999995</v>
       </c>
@@ -7770,7 +7941,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0.94399999999999995</v>
       </c>
@@ -7781,7 +7952,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>0.94399999999999995</v>
       </c>
@@ -7792,7 +7963,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>0.94299999999999995</v>
       </c>
@@ -7803,7 +7974,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.93100000000000005</v>
       </c>
@@ -7814,7 +7985,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.94599999999999995</v>
       </c>
@@ -7825,7 +7996,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.93200000000000005</v>
       </c>
@@ -7836,7 +8007,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>0.94599999999999995</v>
       </c>
@@ -7847,7 +8018,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0.91300000000000003</v>
       </c>
@@ -7858,7 +8029,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0.94399999999999995</v>
       </c>
@@ -7869,7 +8040,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.89100000000000001</v>
       </c>
@@ -7880,7 +8051,7 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.93700000000000006</v>
       </c>
@@ -7891,7 +8062,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.93400000000000005</v>
       </c>
@@ -7902,7 +8073,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.92100000000000004</v>
       </c>
@@ -7913,7 +8084,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>0.94499999999999995</v>
       </c>
@@ -7924,7 +8095,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>0.92100000000000004</v>
       </c>
@@ -7935,7 +8106,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.94599999999999995</v>
       </c>
@@ -7946,7 +8117,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>0.95099999999999996</v>
       </c>
@@ -7957,7 +8128,7 @@
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0.93899999999999995</v>
       </c>
@@ -7968,7 +8139,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0.94699999999999995</v>
       </c>
@@ -7979,7 +8150,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0.94799999999999995</v>
       </c>
@@ -7990,7 +8161,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0.93799999999999994</v>
       </c>
@@ -8001,7 +8172,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0.93799999999999994</v>
       </c>
@@ -8012,7 +8183,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0.94299999999999995</v>
       </c>
@@ -8023,7 +8194,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.93799999999999994</v>
       </c>
@@ -8034,7 +8205,7 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0.90400000000000003</v>
       </c>
@@ -8045,7 +8216,7 @@
         <v>0.90400000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>0.92500000000000004</v>
       </c>
@@ -8056,7 +8227,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>0.94099999999999995</v>
       </c>
@@ -8067,7 +8238,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0.94</v>
       </c>
@@ -8078,7 +8249,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0.93700000000000006</v>
       </c>
@@ -8089,7 +8260,7 @@
         <v>0.93600000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0.94199999999999995</v>
       </c>
@@ -8100,7 +8271,7 @@
         <v>0.94199999999999995</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0.94399999999999995</v>
       </c>
@@ -8111,7 +8282,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0.94399999999999995</v>
       </c>
@@ -8122,7 +8293,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0.94299999999999995</v>
       </c>
@@ -8133,7 +8304,7 @@
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0.93100000000000005</v>
       </c>
@@ -8144,7 +8315,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0.94599999999999995</v>
       </c>
@@ -8155,7 +8326,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0.93200000000000005</v>
       </c>
@@ -8166,7 +8337,7 @@
         <v>0.93200000000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0.94599999999999995</v>
       </c>
@@ -8177,7 +8348,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0.91300000000000003</v>
       </c>
@@ -8188,7 +8359,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0.94399999999999995</v>
       </c>
@@ -8199,7 +8370,7 @@
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0.89100000000000001</v>
       </c>
@@ -8210,7 +8381,7 @@
         <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0.93700000000000006</v>
       </c>
@@ -8221,7 +8392,7 @@
         <v>0.93700000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0.93400000000000005</v>
       </c>
@@ -8232,7 +8403,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0.92100000000000004</v>
       </c>
@@ -8243,7 +8414,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0.94499999999999995</v>
       </c>
@@ -8254,7 +8425,7 @@
         <v>0.94499999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0.92100000000000004</v>
       </c>
@@ -8265,7 +8436,7 @@
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0.94599999999999995</v>
       </c>
@@ -8276,7 +8447,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>AVERAGE(A1:A60)</f>
         <v>0.93563333333333321</v>
@@ -8297,91 +8468,192 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F322C255-EDEB-41AB-A3A0-F3469CB26674}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="2">
         <v>0.91046666666666654</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="2">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.92430000000000034</v>
       </c>
-      <c r="D2">
+      <c r="E3" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.91709999999999969</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G3" s="9">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="2">
         <v>0.91846666666666654</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="2">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.90113333333333323</v>
       </c>
-      <c r="D3">
+      <c r="E4" s="2">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.90969999999999973</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G4" s="9">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="2">
         <v>0.97136666666666671</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="2">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.99210000000000009</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="2">
+        <v>0.995</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.98136666666666639</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G5" s="9">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="2">
         <v>0.94260000000000022</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.92513333333333359</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="2">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.93366666666666664</v>
       </c>
+      <c r="G6" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="11">
+        <f>AVERAGE(B3:B6)</f>
+        <v>0.93572500000000003</v>
+      </c>
+      <c r="C7" s="11">
+        <f t="shared" ref="C7:G7" si="0">AVERAGE(C3:C6)</f>
+        <v>0.90825</v>
+      </c>
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93566666666666687</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="0"/>
+        <v>0.93545833333333306</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>0.89924999999999988</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8389,17 +8661,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD57A980-855F-4620-BC0C-775DF77023E3}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8413,7 +8685,7 @@
         <v>21907.180684522398</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8427,7 +8699,7 @@
         <v>22152.939994333799</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3">
         <f>SUM(D1:D2)</f>
         <v>44060.120678856198</v>
@@ -8437,7 +8709,7 @@
         <v>12.238922410793387</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D5">
         <f>D3/60</f>
         <v>734.33534464760328</v>
@@ -8450,19 +8722,19 @@
         <v>73433.534464760334</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G16" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
